--- a/Output_CSV/office_data/IF_anomaly_2h_9to6.xlsx
+++ b/Output_CSV/office_data/IF_anomaly_2h_9to6.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livemissouristate-my.sharepoint.com/personal/mt5864s_login_missouristate_edu/Documents/Documents/Jupyter Notebooks/Thesis/Output_CSV/"/>
@@ -16,7 +16,23 @@
     <sheet name="IF_anomaly_2h_9to6" sheetId="1" r:id="rId1"/>
     <sheet name="IF_anomaly_august_2h_9to6" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -36,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,12 +913,12 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -913,7 +929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>45475.416666666664</v>
       </c>
@@ -924,7 +940,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>45475.5</v>
       </c>
@@ -935,7 +951,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>45475.583333333336</v>
       </c>
@@ -946,7 +962,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>45475.666666666664</v>
       </c>
@@ -957,7 +973,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>45475.75</v>
       </c>
@@ -968,7 +984,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>45476.416666666664</v>
       </c>
@@ -979,7 +995,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>45476.5</v>
       </c>
@@ -990,7 +1006,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>45476.583333333336</v>
       </c>
@@ -1001,7 +1017,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>45476.666666666664</v>
       </c>
@@ -1012,7 +1028,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>45476.75</v>
       </c>
@@ -1023,7 +1039,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>45477.416666666664</v>
       </c>
@@ -1034,7 +1050,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>45477.5</v>
       </c>
@@ -1045,7 +1061,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>45477.583333333336</v>
       </c>
@@ -1056,7 +1072,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>45477.666666666664</v>
       </c>
@@ -1067,7 +1083,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>45477.75</v>
       </c>
@@ -1078,7 +1094,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>45478.416666666664</v>
       </c>
@@ -1089,7 +1105,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>45478.5</v>
       </c>
@@ -1100,7 +1116,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>45478.583333333336</v>
       </c>
@@ -1111,7 +1127,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>45478.666666666664</v>
       </c>
@@ -1122,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>45478.75</v>
       </c>
@@ -1133,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>45479.416666666664</v>
       </c>
@@ -1144,7 +1160,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>45479.5</v>
       </c>
@@ -1155,7 +1171,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>45479.583333333336</v>
       </c>
@@ -1166,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>45479.666666666664</v>
       </c>
@@ -1177,7 +1193,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>45479.75</v>
       </c>
@@ -1188,7 +1204,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>45480.416666666664</v>
       </c>
@@ -1199,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>45480.5</v>
       </c>
@@ -1210,7 +1226,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>45480.583333333336</v>
       </c>
@@ -1221,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>45480.666666666664</v>
       </c>
@@ -1232,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>45480.75</v>
       </c>
@@ -1243,7 +1259,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>45481.416666666664</v>
       </c>
@@ -1254,7 +1270,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>45481.5</v>
       </c>
@@ -1265,7 +1281,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>45481.583333333336</v>
       </c>
@@ -1276,7 +1292,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>45481.666666666664</v>
       </c>
@@ -1287,7 +1303,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>45481.75</v>
       </c>
@@ -1298,7 +1314,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>45482.416666666664</v>
       </c>
@@ -1309,7 +1325,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>45482.5</v>
       </c>
@@ -1320,7 +1336,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>45482.583333333336</v>
       </c>
@@ -1331,7 +1347,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>45482.666666666664</v>
       </c>
@@ -1342,7 +1358,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>45482.75</v>
       </c>
@@ -1353,7 +1369,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>45483.416666666664</v>
       </c>
@@ -1364,7 +1380,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>45483.5</v>
       </c>
@@ -1375,7 +1391,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>45483.583333333336</v>
       </c>
@@ -1386,7 +1402,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>45483.666666666664</v>
       </c>
@@ -1397,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>45483.75</v>
       </c>
@@ -1408,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45484.416666666664</v>
       </c>
@@ -1419,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>45484.5</v>
       </c>
@@ -1430,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>45484.583333333336</v>
       </c>
@@ -1441,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>45484.666666666664</v>
       </c>
@@ -1452,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>45484.75</v>
       </c>
@@ -1463,7 +1479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>45485.416666666664</v>
       </c>
@@ -1474,7 +1490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>45485.5</v>
       </c>
@@ -1485,7 +1501,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>45485.583333333336</v>
       </c>
@@ -1496,7 +1512,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>45485.666666666664</v>
       </c>
@@ -1507,7 +1523,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>45485.75</v>
       </c>
@@ -1518,7 +1534,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>45486.416666666664</v>
       </c>
@@ -1529,7 +1545,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>45486.5</v>
       </c>
@@ -1540,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>45486.583333333336</v>
       </c>
@@ -1551,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>45486.666666666664</v>
       </c>
@@ -1562,7 +1578,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>45486.75</v>
       </c>
@@ -1573,7 +1589,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>45487.416666666664</v>
       </c>
@@ -1584,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>45487.5</v>
       </c>
@@ -1595,7 +1611,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>45487.583333333336</v>
       </c>
@@ -1606,7 +1622,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>45487.666666666664</v>
       </c>
@@ -1617,7 +1633,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>45487.75</v>
       </c>
@@ -1628,7 +1644,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>45488.416666666664</v>
       </c>
@@ -1639,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>45488.5</v>
       </c>
@@ -1650,7 +1666,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>45488.583333333336</v>
       </c>
@@ -1661,7 +1677,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>45488.666666666664</v>
       </c>
@@ -1672,7 +1688,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>45488.75</v>
       </c>
@@ -1683,7 +1699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>45489.416666666664</v>
       </c>
@@ -1694,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>45489.5</v>
       </c>
@@ -1705,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>45489.583333333336</v>
       </c>
@@ -1716,7 +1732,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>45489.666666666664</v>
       </c>
@@ -1727,7 +1743,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>45489.75</v>
       </c>
@@ -1738,7 +1754,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>45490.416666666664</v>
       </c>
@@ -1749,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>45490.5</v>
       </c>
@@ -1760,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>45490.583333333336</v>
       </c>
@@ -1771,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>45490.666666666664</v>
       </c>
@@ -1782,7 +1798,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>45490.75</v>
       </c>
@@ -1793,7 +1809,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>45491.416666666664</v>
       </c>
@@ -1804,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>45491.5</v>
       </c>
@@ -1815,7 +1831,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>45491.583333333336</v>
       </c>
@@ -1826,7 +1842,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>45491.666666666664</v>
       </c>
@@ -1837,7 +1853,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>45491.75</v>
       </c>
@@ -1848,7 +1864,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>45492.416666666664</v>
       </c>
@@ -1859,7 +1875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>45492.5</v>
       </c>
@@ -1870,7 +1886,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>45492.583333333336</v>
       </c>
@@ -1881,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>45492.666666666664</v>
       </c>
@@ -1892,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>45492.75</v>
       </c>
@@ -1903,7 +1919,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>45493.416666666664</v>
       </c>
@@ -1914,7 +1930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>45493.5</v>
       </c>
@@ -1925,7 +1941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>45493.583333333336</v>
       </c>
@@ -1936,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>45493.666666666664</v>
       </c>
@@ -1947,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>45493.75</v>
       </c>
@@ -1958,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>45494.416666666664</v>
       </c>
@@ -1969,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>45494.5</v>
       </c>
@@ -1980,7 +1996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>45494.583333333336</v>
       </c>
@@ -1991,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>45494.666666666664</v>
       </c>
@@ -2002,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>45494.75</v>
       </c>
@@ -2013,7 +2029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>45495.416666666664</v>
       </c>
@@ -2024,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>45495.5</v>
       </c>
@@ -2035,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>45495.583333333336</v>
       </c>
@@ -2046,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>45495.666666666664</v>
       </c>
@@ -2057,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>45495.75</v>
       </c>
@@ -2068,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>45496.416666666664</v>
       </c>
@@ -2079,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>45496.5</v>
       </c>
@@ -2090,7 +2106,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>45496.583333333336</v>
       </c>
@@ -2101,7 +2117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>45496.666666666664</v>
       </c>
@@ -2112,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>45496.75</v>
       </c>
@@ -2123,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>45497.416666666664</v>
       </c>
@@ -2134,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>45497.5</v>
       </c>
@@ -2145,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>45497.583333333336</v>
       </c>
@@ -2156,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>45497.666666666664</v>
       </c>
@@ -2167,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>45497.75</v>
       </c>
@@ -2178,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>45498.416666666664</v>
       </c>
@@ -2189,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>45498.5</v>
       </c>
@@ -2200,7 +2216,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>45498.583333333336</v>
       </c>
@@ -2211,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>45498.666666666664</v>
       </c>
@@ -2222,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>45498.75</v>
       </c>
@@ -2233,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>45499.416666666664</v>
       </c>
@@ -2244,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>45499.5</v>
       </c>
@@ -2255,7 +2271,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>45499.583333333336</v>
       </c>
@@ -2266,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>45499.666666666664</v>
       </c>
@@ -2277,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>45499.75</v>
       </c>
@@ -2288,7 +2304,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>45500.416666666664</v>
       </c>
@@ -2299,7 +2315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>45500.5</v>
       </c>
@@ -2310,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>45500.583333333336</v>
       </c>
@@ -2321,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>45500.666666666664</v>
       </c>
@@ -2332,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>45500.75</v>
       </c>
@@ -2343,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>45501.416666666664</v>
       </c>
@@ -2354,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>45501.5</v>
       </c>
@@ -2365,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>45501.583333333336</v>
       </c>
@@ -2376,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>45501.666666666664</v>
       </c>
@@ -2387,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>45501.75</v>
       </c>
@@ -2398,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>45502.416666666664</v>
       </c>
@@ -2409,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>45502.5</v>
       </c>
@@ -2420,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>45502.583333333336</v>
       </c>
@@ -2431,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>45502.666666666664</v>
       </c>
@@ -2442,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>45502.75</v>
       </c>
@@ -2453,7 +2469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>45503.416666666664</v>
       </c>
@@ -2464,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>45503.5</v>
       </c>
@@ -2475,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>45503.583333333336</v>
       </c>
@@ -2486,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>45503.666666666664</v>
       </c>
@@ -2497,7 +2513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>45503.75</v>
       </c>
@@ -2508,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="1">
         <v>45504.416666666664</v>
       </c>
@@ -2519,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="1">
         <v>45504.5</v>
       </c>
@@ -2530,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="1">
         <v>45504.583333333336</v>
       </c>
@@ -2541,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="1">
         <v>45504.666666666664</v>
       </c>
@@ -2552,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="1">
         <v>45504.75</v>
       </c>
@@ -2563,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="1">
         <v>45505.416666666664</v>
       </c>
@@ -2574,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="1">
         <v>45505.5</v>
       </c>
@@ -2585,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="1">
         <v>45505.583333333336</v>
       </c>
@@ -2596,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="1">
         <v>45505.666666666664</v>
       </c>
@@ -2607,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="1">
         <v>45505.75</v>
       </c>
@@ -2618,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" s="1">
         <v>45506.416666666664</v>
       </c>
@@ -2629,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" s="1">
         <v>45506.5</v>
       </c>
@@ -2640,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="1">
         <v>45506.583333333336</v>
       </c>
@@ -2651,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="1">
         <v>45506.666666666664</v>
       </c>
@@ -2662,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="1">
         <v>45506.75</v>
       </c>
@@ -2673,7 +2689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" s="1">
         <v>45507.416666666664</v>
       </c>
@@ -2684,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" s="1">
         <v>45507.5</v>
       </c>
@@ -2695,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" s="1">
         <v>45507.583333333336</v>
       </c>
@@ -2706,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" s="1">
         <v>45507.666666666664</v>
       </c>
@@ -2717,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" s="1">
         <v>45507.75</v>
       </c>
@@ -2728,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="1">
         <v>45508.416666666664</v>
       </c>
@@ -2739,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="1">
         <v>45508.5</v>
       </c>
@@ -2750,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" s="1">
         <v>45508.583333333336</v>
       </c>
@@ -2761,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" s="1">
         <v>45508.666666666664</v>
       </c>
@@ -2772,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" s="1">
         <v>45508.75</v>
       </c>
@@ -2783,7 +2799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" s="1">
         <v>45509.416666666664</v>
       </c>
@@ -2794,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" s="1">
         <v>45509.5</v>
       </c>
@@ -2805,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="1">
         <v>45509.583333333336</v>
       </c>
@@ -2816,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="1">
         <v>45509.666666666664</v>
       </c>
@@ -2827,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" s="1">
         <v>45509.75</v>
       </c>
@@ -2838,7 +2854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" s="1">
         <v>45510.416666666664</v>
       </c>
@@ -2849,7 +2865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" s="1">
         <v>45510.5</v>
       </c>
@@ -2860,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" s="1">
         <v>45510.583333333336</v>
       </c>
@@ -2871,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" s="1">
         <v>45510.666666666664</v>
       </c>
@@ -2882,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" s="1">
         <v>45510.75</v>
       </c>
@@ -2893,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" s="1">
         <v>45511.416666666664</v>
       </c>
@@ -2904,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" s="1">
         <v>45511.5</v>
       </c>
@@ -2915,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" s="1">
         <v>45511.583333333336</v>
       </c>
@@ -2926,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" s="1">
         <v>45511.666666666664</v>
       </c>
@@ -2937,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" s="1">
         <v>45511.75</v>
       </c>
@@ -2948,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" s="1">
         <v>45512.416666666664</v>
       </c>
@@ -2959,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" s="1">
         <v>45512.5</v>
       </c>
@@ -2970,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" s="1">
         <v>45512.583333333336</v>
       </c>
@@ -2981,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" s="1">
         <v>45512.666666666664</v>
       </c>
@@ -2992,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" s="1">
         <v>45512.75</v>
       </c>
@@ -3003,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" s="1">
         <v>45513.416666666664</v>
       </c>
@@ -3014,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="1">
         <v>45513.5</v>
       </c>
@@ -3025,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="1">
         <v>45513.583333333336</v>
       </c>
@@ -3036,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="1">
         <v>45513.666666666664</v>
       </c>
@@ -3047,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="1">
         <v>45513.75</v>
       </c>
@@ -3058,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" s="1">
         <v>45514.416666666664</v>
       </c>
@@ -3069,7 +3085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" s="1">
         <v>45514.5</v>
       </c>
@@ -3080,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" s="1">
         <v>45514.583333333336</v>
       </c>
@@ -3091,7 +3107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" s="1">
         <v>45514.666666666664</v>
       </c>
@@ -3102,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" s="1">
         <v>45514.75</v>
       </c>
@@ -3113,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" s="1">
         <v>45515.416666666664</v>
       </c>
@@ -3124,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" s="1">
         <v>45515.5</v>
       </c>
@@ -3135,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" s="1">
         <v>45515.583333333336</v>
       </c>
@@ -3146,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" s="1">
         <v>45515.666666666664</v>
       </c>
@@ -3157,7 +3173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" s="1">
         <v>45515.75</v>
       </c>
@@ -3168,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" s="1">
         <v>45516.416666666664</v>
       </c>
@@ -3179,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" s="1">
         <v>45516.5</v>
       </c>
@@ -3190,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" s="1">
         <v>45516.583333333336</v>
       </c>
@@ -3201,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" s="1">
         <v>45516.666666666664</v>
       </c>
@@ -3212,7 +3228,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" s="1">
         <v>45516.75</v>
       </c>
@@ -3223,7 +3239,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" s="1">
         <v>45517.416666666664</v>
       </c>
@@ -3234,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" s="1">
         <v>45517.5</v>
       </c>
@@ -3245,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" s="1">
         <v>45517.583333333336</v>
       </c>
@@ -3256,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" s="1">
         <v>45517.666666666664</v>
       </c>
@@ -3267,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" s="1">
         <v>45517.75</v>
       </c>
@@ -3278,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" s="1">
         <v>45518.416666666664</v>
       </c>
@@ -3289,7 +3305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" s="1">
         <v>45518.5</v>
       </c>
@@ -3300,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" s="1">
         <v>45518.583333333336</v>
       </c>
@@ -3311,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" s="1">
         <v>45518.666666666664</v>
       </c>
@@ -3322,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" s="1">
         <v>45518.75</v>
       </c>
@@ -3333,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" s="1">
         <v>45519.416666666664</v>
       </c>
@@ -3344,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" s="1">
         <v>45519.5</v>
       </c>
@@ -3355,7 +3371,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224" s="1">
         <v>45519.583333333336</v>
       </c>
@@ -3366,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" s="1">
         <v>45519.666666666664</v>
       </c>
@@ -3377,7 +3393,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" s="1">
         <v>45519.75</v>
       </c>
@@ -3388,7 +3404,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" s="1">
         <v>45520.416666666664</v>
       </c>
@@ -3399,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" s="1">
         <v>45520.5</v>
       </c>
@@ -3410,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" s="1">
         <v>45520.583333333336</v>
       </c>
@@ -3421,7 +3437,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230" s="1">
         <v>45520.666666666664</v>
       </c>
@@ -3432,7 +3448,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231" s="1">
         <v>45520.75</v>
       </c>
@@ -3443,7 +3459,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232" s="1">
         <v>45521.416666666664</v>
       </c>
@@ -3454,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233" s="1">
         <v>45521.5</v>
       </c>
@@ -3465,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" s="1">
         <v>45521.583333333336</v>
       </c>
@@ -3476,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235" s="1">
         <v>45521.666666666664</v>
       </c>
@@ -3487,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236" s="1">
         <v>45521.75</v>
       </c>
@@ -3498,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" s="1">
         <v>45522.416666666664</v>
       </c>
@@ -3509,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238" s="1">
         <v>45522.5</v>
       </c>
@@ -3520,7 +3536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3">
       <c r="A239" s="1">
         <v>45522.583333333336</v>
       </c>
@@ -3531,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3">
       <c r="A240" s="1">
         <v>45522.666666666664</v>
       </c>
@@ -3542,7 +3558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" s="1">
         <v>45522.75</v>
       </c>
@@ -3553,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" s="1">
         <v>45523.416666666664</v>
       </c>
@@ -3564,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" s="1">
         <v>45523.5</v>
       </c>
@@ -3575,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" s="1">
         <v>45523.583333333336</v>
       </c>
@@ -3586,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" s="1">
         <v>45523.666666666664</v>
       </c>
@@ -3597,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" s="1">
         <v>45523.75</v>
       </c>
@@ -3608,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247" s="1">
         <v>45524.416666666664</v>
       </c>
@@ -3619,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248" s="1">
         <v>45524.5</v>
       </c>
@@ -3630,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249" s="1">
         <v>45524.583333333336</v>
       </c>
@@ -3641,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250" s="1">
         <v>45524.666666666664</v>
       </c>
@@ -3652,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251" s="1">
         <v>45524.75</v>
       </c>
@@ -3663,7 +3679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" s="1">
         <v>45525.416666666664</v>
       </c>
@@ -3674,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253" s="1">
         <v>45525.5</v>
       </c>
@@ -3685,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3">
       <c r="A254" s="1">
         <v>45525.583333333336</v>
       </c>
@@ -3696,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3">
       <c r="A255" s="1">
         <v>45525.666666666664</v>
       </c>
@@ -3707,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256" s="1">
         <v>45525.75</v>
       </c>
@@ -3718,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3">
       <c r="A257" s="1">
         <v>45526.416666666664</v>
       </c>
@@ -3729,7 +3745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258" s="1">
         <v>45526.5</v>
       </c>
@@ -3740,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3">
       <c r="A259" s="1">
         <v>45526.583333333336</v>
       </c>
@@ -3751,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3">
       <c r="A260" s="1">
         <v>45526.666666666664</v>
       </c>
@@ -3762,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3">
       <c r="A261" s="1">
         <v>45526.75</v>
       </c>
@@ -3773,7 +3789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3">
       <c r="A262" s="1">
         <v>45527.416666666664</v>
       </c>
@@ -3784,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3">
       <c r="A263" s="1">
         <v>45527.5</v>
       </c>
@@ -3795,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3">
       <c r="A264" s="1">
         <v>45527.583333333336</v>
       </c>
@@ -3806,7 +3822,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3">
       <c r="A265" s="1">
         <v>45527.666666666664</v>
       </c>
@@ -3817,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3">
       <c r="A266" s="1">
         <v>45527.75</v>
       </c>
@@ -3828,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3">
       <c r="A267" s="1">
         <v>45528.416666666664</v>
       </c>
@@ -3839,7 +3855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3">
       <c r="A268" s="1">
         <v>45528.5</v>
       </c>
@@ -3850,7 +3866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3">
       <c r="A269" s="1">
         <v>45528.583333333336</v>
       </c>
@@ -3861,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3">
       <c r="A270" s="1">
         <v>45528.666666666664</v>
       </c>
@@ -3872,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3">
       <c r="A271" s="1">
         <v>45528.75</v>
       </c>
@@ -3883,7 +3899,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3">
       <c r="A272" s="1">
         <v>45529.416666666664</v>
       </c>
@@ -3894,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3">
       <c r="A273" s="1">
         <v>45529.5</v>
       </c>
@@ -3905,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3">
       <c r="A274" s="1">
         <v>45529.583333333336</v>
       </c>
@@ -3916,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3">
       <c r="A275" s="1">
         <v>45529.666666666664</v>
       </c>
@@ -3927,7 +3943,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3">
       <c r="A276" s="1">
         <v>45529.75</v>
       </c>
@@ -3938,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3">
       <c r="A277" s="1">
         <v>45530.416666666664</v>
       </c>
@@ -3949,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3">
       <c r="A278" s="1">
         <v>45530.5</v>
       </c>
@@ -3960,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3">
       <c r="A279" s="1">
         <v>45530.583333333336</v>
       </c>
@@ -3971,7 +3987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3">
       <c r="A280" s="1">
         <v>45530.666666666664</v>
       </c>
@@ -3982,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3">
       <c r="A281" s="1">
         <v>45530.75</v>
       </c>
@@ -3993,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3">
       <c r="A282" s="1">
         <v>45531.416666666664</v>
       </c>
@@ -4004,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3">
       <c r="A283" s="1">
         <v>45531.5</v>
       </c>
@@ -4015,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3">
       <c r="A284" s="1">
         <v>45531.583333333336</v>
       </c>
@@ -4026,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3">
       <c r="A285" s="1">
         <v>45531.666666666664</v>
       </c>
@@ -4037,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3">
       <c r="A286" s="1">
         <v>45531.75</v>
       </c>
@@ -4048,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3">
       <c r="A287" s="1">
         <v>45532.416666666664</v>
       </c>
@@ -4059,7 +4075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3">
       <c r="A288" s="1">
         <v>45532.5</v>
       </c>
@@ -4070,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3">
       <c r="A289" s="1">
         <v>45532.583333333336</v>
       </c>
@@ -4081,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3">
       <c r="A290" s="1">
         <v>45532.666666666664</v>
       </c>
@@ -4092,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3">
       <c r="A291" s="1">
         <v>45532.75</v>
       </c>
@@ -4103,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3">
       <c r="A292" s="1">
         <v>45533.416666666664</v>
       </c>
@@ -4114,7 +4130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3">
       <c r="A293" s="1">
         <v>45533.5</v>
       </c>
@@ -4125,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3">
       <c r="A294" s="1">
         <v>45533.583333333336</v>
       </c>
@@ -4136,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3">
       <c r="A295" s="1">
         <v>45533.666666666664</v>
       </c>
@@ -4147,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3">
       <c r="A296" s="1">
         <v>45533.75</v>
       </c>
@@ -4158,7 +4174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3">
       <c r="A297" s="1">
         <v>45534.416666666664</v>
       </c>
@@ -4169,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3">
       <c r="A298" s="1">
         <v>45534.5</v>
       </c>
@@ -4180,7 +4196,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3">
       <c r="A299" s="1">
         <v>45534.583333333336</v>
       </c>
@@ -4191,7 +4207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3">
       <c r="A300" s="1">
         <v>45534.666666666664</v>
       </c>
@@ -4202,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3">
       <c r="A301" s="1">
         <v>45534.75</v>
       </c>
@@ -4213,7 +4229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3">
       <c r="A302" s="1">
         <v>45535.416666666664</v>
       </c>
@@ -4224,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3">
       <c r="A303" s="1">
         <v>45535.5</v>
       </c>
@@ -4235,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3">
       <c r="A304" s="1">
         <v>45535.583333333336</v>
       </c>
@@ -4246,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3">
       <c r="A305" s="1">
         <v>45535.666666666664</v>
       </c>
@@ -4257,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3">
       <c r="A306" s="1">
         <v>45535.75</v>
       </c>
@@ -4268,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3">
       <c r="A307" s="1">
         <v>45536.416666666664</v>
       </c>
@@ -4279,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3">
       <c r="A308" s="1">
         <v>45536.5</v>
       </c>
@@ -4290,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3">
       <c r="A309" s="1">
         <v>45536.583333333336</v>
       </c>
@@ -4301,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3">
       <c r="A310" s="1">
         <v>45536.666666666664</v>
       </c>
@@ -4312,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3">
       <c r="A311" s="1">
         <v>45536.75</v>
       </c>
@@ -4323,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3">
       <c r="A312" s="1">
         <v>45537.416666666664</v>
       </c>
@@ -4334,7 +4350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3">
       <c r="A313" s="1">
         <v>45537.5</v>
       </c>
@@ -4345,7 +4361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3">
       <c r="A314" s="1">
         <v>45537.583333333336</v>
       </c>
@@ -4356,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3">
       <c r="A315" s="1">
         <v>45537.666666666664</v>
       </c>
@@ -4367,7 +4383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3">
       <c r="A316" s="1">
         <v>45537.75</v>
       </c>
@@ -4378,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3">
       <c r="A317" s="1">
         <v>45538.416666666664</v>
       </c>
@@ -4389,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3">
       <c r="A318" s="1">
         <v>45538.5</v>
       </c>
@@ -4400,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3">
       <c r="A319" s="1">
         <v>45538.583333333336</v>
       </c>
@@ -4411,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3">
       <c r="A320" s="1">
         <v>45538.666666666664</v>
       </c>
@@ -4422,7 +4438,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3">
       <c r="A321" s="1">
         <v>45538.75</v>
       </c>
@@ -4433,7 +4449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3">
       <c r="A322" s="1">
         <v>45539.416666666664</v>
       </c>
@@ -4444,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3">
       <c r="A323" s="1">
         <v>45539.5</v>
       </c>
@@ -4455,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3">
       <c r="A324" s="1">
         <v>45539.583333333336</v>
       </c>
@@ -4466,7 +4482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3">
       <c r="A325" s="1">
         <v>45539.666666666664</v>
       </c>
@@ -4477,7 +4493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3">
       <c r="A326" s="1">
         <v>45539.75</v>
       </c>
@@ -4488,7 +4504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3">
       <c r="A327" s="1">
         <v>45540.416666666664</v>
       </c>
@@ -4499,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3">
       <c r="A328" s="1">
         <v>45540.5</v>
       </c>
@@ -4510,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3">
       <c r="A329" s="1">
         <v>45540.583333333336</v>
       </c>
@@ -4521,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3">
       <c r="A330" s="1">
         <v>45540.666666666664</v>
       </c>
@@ -4532,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3">
       <c r="A331" s="1">
         <v>45540.75</v>
       </c>
@@ -4543,7 +4559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3">
       <c r="A332" s="1">
         <v>45541.416666666664</v>
       </c>
@@ -4554,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3">
       <c r="A333" s="1">
         <v>45541.5</v>
       </c>
@@ -4565,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3">
       <c r="A334" s="1">
         <v>45541.583333333336</v>
       </c>
@@ -4576,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3">
       <c r="A335" s="1">
         <v>45541.666666666664</v>
       </c>
@@ -4587,7 +4603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3">
       <c r="A336" s="1">
         <v>45541.75</v>
       </c>
@@ -4598,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3">
       <c r="A337" s="1">
         <v>45542.416666666664</v>
       </c>
@@ -4609,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3">
       <c r="A338" s="1">
         <v>45542.5</v>
       </c>
@@ -4620,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3">
       <c r="A339" s="1">
         <v>45542.583333333336</v>
       </c>
@@ -4631,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3">
       <c r="A340" s="1">
         <v>45542.666666666664</v>
       </c>
@@ -4642,7 +4658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3">
       <c r="A341" s="1">
         <v>45542.75</v>
       </c>
@@ -4653,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3">
       <c r="A342" s="1">
         <v>45543.416666666664</v>
       </c>
@@ -4664,7 +4680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3">
       <c r="A343" s="1">
         <v>45543.5</v>
       </c>
@@ -4675,7 +4691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3">
       <c r="A344" s="1">
         <v>45543.583333333336</v>
       </c>
@@ -4686,7 +4702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3">
       <c r="A345" s="1">
         <v>45543.666666666664</v>
       </c>
@@ -4697,7 +4713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3">
       <c r="A346" s="1">
         <v>45543.75</v>
       </c>
@@ -4708,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3">
       <c r="A347" s="1">
         <v>45544.416666666664</v>
       </c>
@@ -4719,7 +4735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3">
       <c r="A348" s="1">
         <v>45544.5</v>
       </c>
@@ -4730,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3">
       <c r="A349" s="1">
         <v>45544.583333333336</v>
       </c>
@@ -4741,7 +4757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3">
       <c r="A350" s="1">
         <v>45544.666666666664</v>
       </c>
@@ -4752,7 +4768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3">
       <c r="A351" s="1">
         <v>45544.75</v>
       </c>
@@ -4763,7 +4779,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3">
       <c r="A352" s="1">
         <v>45545.416666666664</v>
       </c>
@@ -4774,7 +4790,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3">
       <c r="A353" s="1">
         <v>45545.5</v>
       </c>
@@ -4785,7 +4801,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3">
       <c r="A354" s="1">
         <v>45545.583333333336</v>
       </c>
@@ -4796,7 +4812,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3">
       <c r="A355" s="1">
         <v>45545.666666666664</v>
       </c>
@@ -4807,7 +4823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3">
       <c r="A356" s="1">
         <v>45545.75</v>
       </c>
@@ -4818,7 +4834,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3">
       <c r="A357" s="1">
         <v>45546.416666666664</v>
       </c>
@@ -4829,7 +4845,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3">
       <c r="A358" s="1">
         <v>45546.5</v>
       </c>
@@ -4840,7 +4856,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3">
       <c r="A359" s="1">
         <v>45546.583333333336</v>
       </c>
@@ -4851,7 +4867,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3">
       <c r="A360" s="1">
         <v>45546.666666666664</v>
       </c>
@@ -4862,7 +4878,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3">
       <c r="A361" s="1">
         <v>45546.75</v>
       </c>
@@ -4873,7 +4889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3">
       <c r="A362" s="1">
         <v>45547.416666666664</v>
       </c>
@@ -4884,7 +4900,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3">
       <c r="A363" s="1">
         <v>45547.5</v>
       </c>
@@ -4895,7 +4911,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3">
       <c r="A364" s="1">
         <v>45547.583333333336</v>
       </c>
@@ -4906,7 +4922,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3">
       <c r="A365" s="1">
         <v>45547.666666666664</v>
       </c>
@@ -4917,7 +4933,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3">
       <c r="A366" s="1">
         <v>45547.75</v>
       </c>
@@ -4928,7 +4944,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3">
       <c r="A367" s="1">
         <v>45548.416666666664</v>
       </c>
@@ -4939,7 +4955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3">
       <c r="A368" s="1">
         <v>45548.5</v>
       </c>
@@ -4950,7 +4966,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3">
       <c r="A369" s="1">
         <v>45548.583333333336</v>
       </c>
@@ -4961,7 +4977,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3">
       <c r="A370" s="1">
         <v>45548.666666666664</v>
       </c>
@@ -4972,7 +4988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3">
       <c r="A371" s="1">
         <v>45548.75</v>
       </c>
@@ -4983,7 +4999,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3">
       <c r="A372" s="1">
         <v>45549.416666666664</v>
       </c>
@@ -4994,7 +5010,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3">
       <c r="A373" s="1">
         <v>45549.5</v>
       </c>
@@ -5005,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3">
       <c r="A374" s="1">
         <v>45549.583333333336</v>
       </c>
@@ -5016,7 +5032,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3">
       <c r="A375" s="1">
         <v>45549.666666666664</v>
       </c>
@@ -5027,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3">
       <c r="A376" s="1">
         <v>45549.75</v>
       </c>
@@ -5038,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3">
       <c r="A377" s="1">
         <v>45550.416666666664</v>
       </c>
@@ -5049,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3">
       <c r="A378" s="1">
         <v>45550.5</v>
       </c>
@@ -5060,7 +5076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3">
       <c r="A379" s="1">
         <v>45550.583333333336</v>
       </c>
@@ -5071,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3">
       <c r="A380" s="1">
         <v>45550.666666666664</v>
       </c>
@@ -5082,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3">
       <c r="A381" s="1">
         <v>45550.75</v>
       </c>
@@ -5093,7 +5109,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3">
       <c r="A382" s="1">
         <v>45551.416666666664</v>
       </c>
@@ -5104,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3">
       <c r="A383" s="1">
         <v>45551.5</v>
       </c>
@@ -5115,7 +5131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3">
       <c r="A384" s="1">
         <v>45551.583333333336</v>
       </c>
@@ -5126,7 +5142,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3">
       <c r="A385" s="1">
         <v>45551.666666666664</v>
       </c>
@@ -5137,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3">
       <c r="A386" s="1">
         <v>45551.75</v>
       </c>
@@ -5148,7 +5164,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3">
       <c r="A387" s="1">
         <v>45552.416666666664</v>
       </c>
@@ -5159,7 +5175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3">
       <c r="A388" s="1">
         <v>45552.5</v>
       </c>
@@ -5170,7 +5186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3">
       <c r="A389" s="1">
         <v>45552.583333333336</v>
       </c>
@@ -5181,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3">
       <c r="A390" s="1">
         <v>45552.666666666664</v>
       </c>
@@ -5192,7 +5208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3">
       <c r="A391" s="1">
         <v>45552.75</v>
       </c>
@@ -5203,7 +5219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3">
       <c r="A392" s="1">
         <v>45553.416666666664</v>
       </c>
@@ -5214,7 +5230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3">
       <c r="A393" s="1">
         <v>45553.5</v>
       </c>
@@ -5225,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3">
       <c r="A394" s="1">
         <v>45553.583333333336</v>
       </c>
@@ -5236,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3">
       <c r="A395" s="1">
         <v>45553.666666666664</v>
       </c>
@@ -5247,7 +5263,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3">
       <c r="A396" s="1">
         <v>45553.75</v>
       </c>
@@ -5258,7 +5274,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3">
       <c r="A397" s="1">
         <v>45554.416666666664</v>
       </c>
@@ -5269,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3">
       <c r="A398" s="1">
         <v>45554.5</v>
       </c>
@@ -5280,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3">
       <c r="A399" s="1">
         <v>45554.583333333336</v>
       </c>
@@ -5291,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3">
       <c r="A400" s="1">
         <v>45554.666666666664</v>
       </c>
@@ -5302,7 +5318,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3">
       <c r="A401" s="1">
         <v>45554.75</v>
       </c>
@@ -5313,7 +5329,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3">
       <c r="A402" s="1">
         <v>45555.416666666664</v>
       </c>
@@ -5324,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3">
       <c r="A403" s="1">
         <v>45555.5</v>
       </c>
@@ -5335,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3">
       <c r="A404" s="1">
         <v>45555.583333333336</v>
       </c>
@@ -5346,7 +5362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3">
       <c r="A405" s="1">
         <v>45555.666666666664</v>
       </c>
@@ -5357,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3">
       <c r="A406" s="1">
         <v>45555.75</v>
       </c>
@@ -5368,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3">
       <c r="A407" s="1">
         <v>45556.416666666664</v>
       </c>
@@ -5379,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3">
       <c r="A408" s="1">
         <v>45556.5</v>
       </c>
@@ -5390,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3">
       <c r="A409" s="1">
         <v>45556.583333333336</v>
       </c>
@@ -5401,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3">
       <c r="A410" s="1">
         <v>45556.666666666664</v>
       </c>
@@ -5412,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3">
       <c r="A411" s="1">
         <v>45556.75</v>
       </c>
@@ -5423,7 +5439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3">
       <c r="A412" s="1">
         <v>45557.416666666664</v>
       </c>
@@ -5434,7 +5450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3">
       <c r="A413" s="1">
         <v>45557.5</v>
       </c>
@@ -5445,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3">
       <c r="A414" s="1">
         <v>45557.583333333336</v>
       </c>
@@ -5456,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3">
       <c r="A415" s="1">
         <v>45557.666666666664</v>
       </c>
@@ -5467,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3">
       <c r="A416" s="1">
         <v>45557.75</v>
       </c>
@@ -5478,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3">
       <c r="A417" s="1">
         <v>45558.416666666664</v>
       </c>
@@ -5489,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3">
       <c r="A418" s="1">
         <v>45558.5</v>
       </c>
@@ -5500,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3">
       <c r="A419" s="1">
         <v>45558.583333333336</v>
       </c>
@@ -5511,7 +5527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3">
       <c r="A420" s="1">
         <v>45558.666666666664</v>
       </c>
@@ -5522,7 +5538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3">
       <c r="A421" s="1">
         <v>45558.75</v>
       </c>
@@ -5533,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3">
       <c r="A422" s="1">
         <v>45559.416666666664</v>
       </c>
@@ -5544,7 +5560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3">
       <c r="A423" s="1">
         <v>45559.5</v>
       </c>
@@ -5555,7 +5571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3">
       <c r="A424" s="1">
         <v>45559.583333333336</v>
       </c>
@@ -5566,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3">
       <c r="A425" s="1">
         <v>45559.666666666664</v>
       </c>
@@ -5577,7 +5593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3">
       <c r="A426" s="1">
         <v>45559.75</v>
       </c>
@@ -5588,7 +5604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3">
       <c r="A427" s="1">
         <v>45560.416666666664</v>
       </c>
@@ -5599,7 +5615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3">
       <c r="A428" s="1">
         <v>45560.5</v>
       </c>
@@ -5610,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3">
       <c r="A429" s="1">
         <v>45560.583333333336</v>
       </c>
@@ -5621,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3">
       <c r="A430" s="1">
         <v>45560.666666666664</v>
       </c>
@@ -5632,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3">
       <c r="A431" s="1">
         <v>45560.75</v>
       </c>
@@ -5643,7 +5659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3">
       <c r="A432" s="1">
         <v>45561.416666666664</v>
       </c>
@@ -5654,7 +5670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3">
       <c r="A433" s="1">
         <v>45561.5</v>
       </c>
@@ -5665,7 +5681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3">
       <c r="A434" s="1">
         <v>45561.583333333336</v>
       </c>
@@ -5676,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3">
       <c r="A435" s="1">
         <v>45561.666666666664</v>
       </c>
@@ -5687,7 +5703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3">
       <c r="A436" s="1">
         <v>45561.75</v>
       </c>
@@ -5698,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3">
       <c r="A437" s="1">
         <v>45562.416666666664</v>
       </c>
@@ -5709,7 +5725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3">
       <c r="A438" s="1">
         <v>45562.5</v>
       </c>
@@ -5720,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3">
       <c r="A439" s="1">
         <v>45562.583333333336</v>
       </c>
@@ -5731,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3">
       <c r="A440" s="1">
         <v>45562.666666666664</v>
       </c>
@@ -5742,7 +5758,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3">
       <c r="A441" s="1">
         <v>45562.75</v>
       </c>
@@ -5753,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3">
       <c r="A442" s="1">
         <v>45563.416666666664</v>
       </c>
@@ -5764,7 +5780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3">
       <c r="A443" s="1">
         <v>45563.5</v>
       </c>
@@ -5775,7 +5791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3">
       <c r="A444" s="1">
         <v>45563.583333333336</v>
       </c>
@@ -5786,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3">
       <c r="A445" s="1">
         <v>45563.666666666664</v>
       </c>
@@ -5797,7 +5813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3">
       <c r="A446" s="1">
         <v>45563.75</v>
       </c>
@@ -5808,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3">
       <c r="A447" s="1">
         <v>45564.416666666664</v>
       </c>
@@ -5819,7 +5835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3">
       <c r="A448" s="1">
         <v>45564.5</v>
       </c>
@@ -5830,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3">
       <c r="A449" s="1">
         <v>45564.583333333336</v>
       </c>
@@ -5841,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3">
       <c r="A450" s="1">
         <v>45564.666666666664</v>
       </c>
@@ -5852,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3">
       <c r="A451" s="1">
         <v>45564.75</v>
       </c>
@@ -5863,7 +5879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3">
       <c r="A452" s="1">
         <v>45565.416666666664</v>
       </c>
@@ -5874,7 +5890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3">
       <c r="A453" s="1">
         <v>45565.5</v>
       </c>
@@ -5885,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3">
       <c r="A454" s="1">
         <v>45565.583333333336</v>
       </c>
@@ -5896,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3">
       <c r="A455" s="1">
         <v>45565.666666666664</v>
       </c>
@@ -5907,7 +5923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3">
       <c r="A456" s="1">
         <v>45565.75</v>
       </c>
@@ -5918,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3">
       <c r="A457" s="1">
         <v>45566.416666666664</v>
       </c>
@@ -5929,7 +5945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3">
       <c r="A458" s="1">
         <v>45566.5</v>
       </c>
@@ -5940,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3">
       <c r="A459" s="1">
         <v>45566.583333333336</v>
       </c>
@@ -5951,7 +5967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3">
       <c r="A460" s="1">
         <v>45566.666666666664</v>
       </c>
@@ -5962,7 +5978,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3">
       <c r="A461" s="1">
         <v>45566.75</v>
       </c>
@@ -5998,12 +6014,12 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6014,7 +6030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>45516.666666666664</v>
       </c>
@@ -6025,7 +6041,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>45516.75</v>
       </c>
@@ -6036,7 +6052,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>45517.416666666664</v>
       </c>
@@ -6047,7 +6063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>45517.5</v>
       </c>
@@ -6058,7 +6074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>45517.583333333336</v>
       </c>
@@ -6069,7 +6085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>45517.666666666664</v>
       </c>
@@ -6080,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>45517.75</v>
       </c>
@@ -6091,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>45518.416666666664</v>
       </c>
@@ -6102,7 +6118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>45518.5</v>
       </c>
@@ -6113,7 +6129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>45518.583333333336</v>
       </c>
@@ -6124,7 +6140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>45518.666666666664</v>
       </c>
@@ -6135,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>45518.75</v>
       </c>
@@ -6146,7 +6162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>45519.416666666664</v>
       </c>
@@ -6157,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>45519.5</v>
       </c>
@@ -6168,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>45519.583333333336</v>
       </c>
@@ -6179,7 +6195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>45519.666666666664</v>
       </c>
@@ -6190,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>45519.75</v>
       </c>
@@ -6201,7 +6217,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>45520.416666666664</v>
       </c>
@@ -6212,7 +6228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>45520.5</v>
       </c>
@@ -6223,7 +6239,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>45520.583333333336</v>
       </c>
@@ -6234,7 +6250,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>45520.666666666664</v>
       </c>
@@ -6245,7 +6261,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>45520.75</v>
       </c>
@@ -6256,7 +6272,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>45521.416666666664</v>
       </c>
@@ -6267,7 +6283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>45521.5</v>
       </c>
@@ -6278,7 +6294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>45521.583333333336</v>
       </c>
@@ -6289,7 +6305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>45521.666666666664</v>
       </c>
@@ -6300,7 +6316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>45521.75</v>
       </c>
@@ -6311,7 +6327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>45522.416666666664</v>
       </c>
@@ -6322,7 +6338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>45522.5</v>
       </c>
@@ -6333,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>45522.583333333336</v>
       </c>
@@ -6344,7 +6360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>45522.666666666664</v>
       </c>
@@ -6355,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>45522.75</v>
       </c>
@@ -6366,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>45523.416666666664</v>
       </c>
@@ -6377,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>45523.5</v>
       </c>
@@ -6388,7 +6404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>45523.583333333336</v>
       </c>
@@ -6399,7 +6415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>45523.666666666664</v>
       </c>
@@ -6410,7 +6426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>45523.75</v>
       </c>
@@ -6421,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>45524.416666666664</v>
       </c>
@@ -6432,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>45524.5</v>
       </c>
@@ -6443,7 +6459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>45524.583333333336</v>
       </c>
@@ -6454,7 +6470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>45524.666666666664</v>
       </c>
@@ -6465,7 +6481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>45524.75</v>
       </c>
@@ -6476,7 +6492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>45525.416666666664</v>
       </c>
@@ -6487,7 +6503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>45525.5</v>
       </c>
@@ -6498,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>45525.583333333336</v>
       </c>
@@ -6509,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45525.666666666664</v>
       </c>
@@ -6520,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>45525.75</v>
       </c>
@@ -6531,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>45526.416666666664</v>
       </c>
@@ -6542,7 +6558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>45526.5</v>
       </c>
@@ -6553,7 +6569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>45526.583333333336</v>
       </c>
@@ -6564,7 +6580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>45526.666666666664</v>
       </c>
@@ -6575,7 +6591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>45526.75</v>
       </c>
@@ -6586,7 +6602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>45527.416666666664</v>
       </c>
@@ -6597,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>45527.5</v>
       </c>
@@ -6608,7 +6624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>45527.583333333336</v>
       </c>
@@ -6619,7 +6635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>45527.666666666664</v>
       </c>
@@ -6630,7 +6646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>45527.75</v>
       </c>
@@ -6641,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>45528.416666666664</v>
       </c>
@@ -6652,7 +6668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>45528.5</v>
       </c>
@@ -6663,7 +6679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>45528.583333333336</v>
       </c>
@@ -6674,7 +6690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>45528.666666666664</v>
       </c>
@@ -6685,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>45528.75</v>
       </c>
@@ -6696,7 +6712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>45529.416666666664</v>
       </c>
@@ -6707,7 +6723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>45529.5</v>
       </c>
@@ -6718,7 +6734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>45529.583333333336</v>
       </c>
@@ -6729,7 +6745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>45529.666666666664</v>
       </c>
@@ -6740,7 +6756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>45529.75</v>
       </c>
@@ -6751,7 +6767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>45530.416666666664</v>
       </c>
@@ -6762,7 +6778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>45530.5</v>
       </c>
@@ -6773,7 +6789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>45530.583333333336</v>
       </c>
@@ -6784,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>45530.666666666664</v>
       </c>
@@ -6795,7 +6811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>45530.75</v>
       </c>
@@ -6806,7 +6822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>45531.416666666664</v>
       </c>
@@ -6817,7 +6833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>45531.5</v>
       </c>
@@ -6828,7 +6844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>45531.583333333336</v>
       </c>
@@ -6839,7 +6855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>45531.666666666664</v>
       </c>
@@ -6850,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>45531.75</v>
       </c>
@@ -6861,7 +6877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>45532.416666666664</v>
       </c>
@@ -6872,7 +6888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>45532.5</v>
       </c>
@@ -6883,7 +6899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>45532.583333333336</v>
       </c>
@@ -6894,7 +6910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>45532.666666666664</v>
       </c>
@@ -6905,7 +6921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>45532.75</v>
       </c>
@@ -6916,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>45533.416666666664</v>
       </c>
@@ -6927,7 +6943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>45533.5</v>
       </c>
@@ -6938,7 +6954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>45533.583333333336</v>
       </c>
@@ -6949,7 +6965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>45533.666666666664</v>
       </c>
@@ -6960,7 +6976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>45533.75</v>
       </c>
@@ -6971,7 +6987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>45534.416666666664</v>
       </c>
@@ -6982,7 +6998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>45534.5</v>
       </c>
@@ -6993,7 +7009,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>45534.583333333336</v>
       </c>
@@ -7004,7 +7020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>45534.666666666664</v>
       </c>
@@ -7015,7 +7031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>45534.75</v>
       </c>
@@ -7026,7 +7042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>45535.416666666664</v>
       </c>
@@ -7037,7 +7053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>45535.5</v>
       </c>
@@ -7048,7 +7064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>45535.583333333336</v>
       </c>
@@ -7059,7 +7075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>45535.666666666664</v>
       </c>
@@ -7070,7 +7086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>45535.75</v>
       </c>
@@ -7081,7 +7097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>45536.416666666664</v>
       </c>
@@ -7092,7 +7108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>45536.5</v>
       </c>
@@ -7103,7 +7119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>45536.583333333336</v>
       </c>
@@ -7114,7 +7130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>45536.666666666664</v>
       </c>
@@ -7125,7 +7141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>45536.75</v>
       </c>
@@ -7136,7 +7152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>45537.416666666664</v>
       </c>
@@ -7147,7 +7163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>45537.5</v>
       </c>
@@ -7158,7 +7174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>45537.583333333336</v>
       </c>
@@ -7169,7 +7185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>45537.666666666664</v>
       </c>
@@ -7180,7 +7196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>45537.75</v>
       </c>
@@ -7191,7 +7207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>45538.416666666664</v>
       </c>
@@ -7202,7 +7218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>45538.5</v>
       </c>
@@ -7213,7 +7229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>45538.583333333336</v>
       </c>
@@ -7224,7 +7240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>45538.666666666664</v>
       </c>
@@ -7235,7 +7251,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>45538.75</v>
       </c>
@@ -7246,7 +7262,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>45539.416666666664</v>
       </c>
@@ -7257,7 +7273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>45539.5</v>
       </c>
@@ -7268,7 +7284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>45539.583333333336</v>
       </c>
@@ -7279,7 +7295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>45539.666666666664</v>
       </c>
@@ -7290,7 +7306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>45539.75</v>
       </c>
@@ -7301,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>45540.416666666664</v>
       </c>
@@ -7312,7 +7328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>45540.5</v>
       </c>
@@ -7323,7 +7339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>45540.583333333336</v>
       </c>
@@ -7334,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>45540.666666666664</v>
       </c>
@@ -7345,7 +7361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>45540.75</v>
       </c>
@@ -7356,7 +7372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>45541.416666666664</v>
       </c>
@@ -7367,7 +7383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>45541.5</v>
       </c>
@@ -7378,7 +7394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>45541.583333333336</v>
       </c>
@@ -7389,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>45541.666666666664</v>
       </c>
@@ -7400,7 +7416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>45541.75</v>
       </c>
@@ -7411,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>45542.416666666664</v>
       </c>
@@ -7422,7 +7438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>45542.5</v>
       </c>
@@ -7433,7 +7449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>45542.583333333336</v>
       </c>
@@ -7444,7 +7460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>45542.666666666664</v>
       </c>
@@ -7455,7 +7471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>45542.75</v>
       </c>
@@ -7466,7 +7482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>45543.416666666664</v>
       </c>
@@ -7477,7 +7493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>45543.5</v>
       </c>
@@ -7488,7 +7504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>45543.583333333336</v>
       </c>
@@ -7499,7 +7515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>45543.666666666664</v>
       </c>
@@ -7510,7 +7526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>45543.75</v>
       </c>
@@ -7521,7 +7537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>45544.416666666664</v>
       </c>
@@ -7532,7 +7548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>45544.5</v>
       </c>
@@ -7543,7 +7559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>45544.583333333336</v>
       </c>
@@ -7554,7 +7570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>45544.666666666664</v>
       </c>
@@ -7565,7 +7581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>45544.75</v>
       </c>
@@ -7576,7 +7592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>45545.416666666664</v>
       </c>
@@ -7587,7 +7603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>45545.5</v>
       </c>
@@ -7598,7 +7614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>45545.583333333336</v>
       </c>
@@ -7609,7 +7625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="1">
         <v>45545.666666666664</v>
       </c>
@@ -7620,7 +7636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="1">
         <v>45545.75</v>
       </c>
@@ -7631,7 +7647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="1">
         <v>45546.416666666664</v>
       </c>
@@ -7642,7 +7658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="1">
         <v>45546.5</v>
       </c>
@@ -7653,7 +7669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="1">
         <v>45546.583333333336</v>
       </c>
@@ -7664,7 +7680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="1">
         <v>45546.666666666664</v>
       </c>
@@ -7675,7 +7691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="1">
         <v>45546.75</v>
       </c>
@@ -7686,7 +7702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="1">
         <v>45547.416666666664</v>
       </c>
@@ -7697,7 +7713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="1">
         <v>45547.5</v>
       </c>
@@ -7708,7 +7724,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="1">
         <v>45547.583333333336</v>
       </c>
@@ -7719,7 +7735,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" s="1">
         <v>45547.666666666664</v>
       </c>
@@ -7730,7 +7746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" s="1">
         <v>45547.75</v>
       </c>
@@ -7741,7 +7757,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="1">
         <v>45548.416666666664</v>
       </c>
@@ -7752,7 +7768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="1">
         <v>45548.5</v>
       </c>
@@ -7763,7 +7779,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="1">
         <v>45548.583333333336</v>
       </c>
@@ -7774,7 +7790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" s="1">
         <v>45548.666666666664</v>
       </c>
@@ -7785,7 +7801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" s="1">
         <v>45548.75</v>
       </c>
@@ -7796,7 +7812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" s="1">
         <v>45549.416666666664</v>
       </c>
@@ -7807,7 +7823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" s="1">
         <v>45549.5</v>
       </c>
@@ -7818,7 +7834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" s="1">
         <v>45549.583333333336</v>
       </c>
@@ -7829,7 +7845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="1">
         <v>45549.666666666664</v>
       </c>
@@ -7840,7 +7856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="1">
         <v>45549.75</v>
       </c>
@@ -7851,7 +7867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" s="1">
         <v>45550.416666666664</v>
       </c>
@@ -7862,7 +7878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" s="1">
         <v>45550.5</v>
       </c>
@@ -7873,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" s="1">
         <v>45550.583333333336</v>
       </c>
@@ -7884,7 +7900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" s="1">
         <v>45550.666666666664</v>
       </c>
@@ -7895,7 +7911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" s="1">
         <v>45550.75</v>
       </c>
@@ -7906,7 +7922,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="1">
         <v>45551.416666666664</v>
       </c>
@@ -7917,7 +7933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="1">
         <v>45551.5</v>
       </c>
@@ -7928,7 +7944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" s="1">
         <v>45551.583333333336</v>
       </c>
@@ -7939,7 +7955,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" s="1">
         <v>45551.666666666664</v>
       </c>
@@ -7950,7 +7966,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" s="1">
         <v>45551.75</v>
       </c>
@@ -7961,7 +7977,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" s="1">
         <v>45552.416666666664</v>
       </c>
@@ -7972,7 +7988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" s="1">
         <v>45552.5</v>
       </c>
@@ -7983,7 +7999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" s="1">
         <v>45552.583333333336</v>
       </c>
@@ -7994,7 +8010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" s="1">
         <v>45552.666666666664</v>
       </c>
@@ -8005,7 +8021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" s="1">
         <v>45552.75</v>
       </c>
@@ -8016,7 +8032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" s="1">
         <v>45553.416666666664</v>
       </c>
@@ -8027,7 +8043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" s="1">
         <v>45553.5</v>
       </c>
@@ -8038,7 +8054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" s="1">
         <v>45553.583333333336</v>
       </c>
@@ -8049,7 +8065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" s="1">
         <v>45553.666666666664</v>
       </c>
@@ -8060,7 +8076,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" s="1">
         <v>45553.75</v>
       </c>
@@ -8071,7 +8087,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" s="1">
         <v>45554.416666666664</v>
       </c>
@@ -8082,7 +8098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" s="1">
         <v>45554.5</v>
       </c>
@@ -8093,7 +8109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" s="1">
         <v>45554.583333333336</v>
       </c>
@@ -8104,7 +8120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" s="1">
         <v>45554.666666666664</v>
       </c>
@@ -8115,7 +8131,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="1">
         <v>45554.75</v>
       </c>
@@ -8126,7 +8142,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="1">
         <v>45555.416666666664</v>
       </c>
@@ -8137,7 +8153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="1">
         <v>45555.5</v>
       </c>
@@ -8148,7 +8164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="1">
         <v>45555.583333333336</v>
       </c>
@@ -8159,7 +8175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" s="1">
         <v>45555.666666666664</v>
       </c>
@@ -8170,7 +8186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" s="1">
         <v>45555.75</v>
       </c>
@@ -8181,7 +8197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" s="1">
         <v>45556.416666666664</v>
       </c>
@@ -8192,7 +8208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" s="1">
         <v>45556.5</v>
       </c>
@@ -8203,7 +8219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" s="1">
         <v>45556.583333333336</v>
       </c>
@@ -8214,7 +8230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" s="1">
         <v>45556.666666666664</v>
       </c>
@@ -8225,7 +8241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" s="1">
         <v>45556.75</v>
       </c>
@@ -8236,7 +8252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" s="1">
         <v>45557.416666666664</v>
       </c>
@@ -8247,7 +8263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" s="1">
         <v>45557.5</v>
       </c>
@@ -8258,7 +8274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" s="1">
         <v>45557.583333333336</v>
       </c>
@@ -8269,7 +8285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" s="1">
         <v>45557.666666666664</v>
       </c>
@@ -8280,7 +8296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" s="1">
         <v>45557.75</v>
       </c>
@@ -8291,7 +8307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" s="1">
         <v>45558.416666666664</v>
       </c>
@@ -8302,7 +8318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" s="1">
         <v>45558.5</v>
       </c>
@@ -8313,7 +8329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" s="1">
         <v>45558.583333333336</v>
       </c>
@@ -8324,7 +8340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" s="1">
         <v>45558.666666666664</v>
       </c>
@@ -8335,7 +8351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" s="1">
         <v>45558.75</v>
       </c>
@@ -8346,7 +8362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" s="1">
         <v>45559.416666666664</v>
       </c>
@@ -8357,7 +8373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" s="1">
         <v>45559.5</v>
       </c>
@@ -8368,7 +8384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" s="1">
         <v>45559.583333333336</v>
       </c>
@@ -8379,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" s="1">
         <v>45559.666666666664</v>
       </c>
@@ -8390,7 +8406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" s="1">
         <v>45559.75</v>
       </c>
@@ -8401,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" s="1">
         <v>45560.416666666664</v>
       </c>
@@ -8412,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" s="1">
         <v>45560.5</v>
       </c>
@@ -8423,7 +8439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" s="1">
         <v>45560.583333333336</v>
       </c>
@@ -8434,7 +8450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" s="1">
         <v>45560.666666666664</v>
       </c>
@@ -8445,7 +8461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" s="1">
         <v>45560.75</v>
       </c>
@@ -8456,7 +8472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224" s="1">
         <v>45561.416666666664</v>
       </c>
@@ -8467,7 +8483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" s="1">
         <v>45561.5</v>
       </c>
@@ -8478,7 +8494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" s="1">
         <v>45561.583333333336</v>
       </c>
@@ -8489,7 +8505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" s="1">
         <v>45561.666666666664</v>
       </c>
@@ -8500,7 +8516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" s="1">
         <v>45561.75</v>
       </c>
@@ -8511,7 +8527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" s="1">
         <v>45562.416666666664</v>
       </c>
@@ -8522,7 +8538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230" s="1">
         <v>45562.5</v>
       </c>
@@ -8533,7 +8549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231" s="1">
         <v>45562.583333333336</v>
       </c>
@@ -8544,7 +8560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232" s="1">
         <v>45562.666666666664</v>
       </c>
@@ -8555,7 +8571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233" s="1">
         <v>45562.75</v>
       </c>
@@ -8566,7 +8582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" s="1">
         <v>45563.416666666664</v>
       </c>
@@ -8577,7 +8593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235" s="1">
         <v>45563.5</v>
       </c>
@@ -8588,7 +8604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236" s="1">
         <v>45563.583333333336</v>
       </c>
@@ -8599,7 +8615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" s="1">
         <v>45563.666666666664</v>
       </c>
@@ -8610,7 +8626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238" s="1">
         <v>45563.75</v>
       </c>
@@ -8621,7 +8637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3">
       <c r="A239" s="1">
         <v>45564.416666666664</v>
       </c>
@@ -8632,7 +8648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3">
       <c r="A240" s="1">
         <v>45564.5</v>
       </c>
@@ -8643,7 +8659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" s="1">
         <v>45564.583333333336</v>
       </c>
@@ -8654,7 +8670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" s="1">
         <v>45564.666666666664</v>
       </c>
@@ -8665,7 +8681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" s="1">
         <v>45564.75</v>
       </c>
@@ -8676,7 +8692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" s="1">
         <v>45565.416666666664</v>
       </c>
@@ -8687,7 +8703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" s="1">
         <v>45565.5</v>
       </c>
@@ -8698,7 +8714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" s="1">
         <v>45565.583333333336</v>
       </c>
@@ -8709,7 +8725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247" s="1">
         <v>45565.666666666664</v>
       </c>
@@ -8720,7 +8736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248" s="1">
         <v>45565.75</v>
       </c>
@@ -8731,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249" s="1">
         <v>45566.416666666664</v>
       </c>
@@ -8742,7 +8758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250" s="1">
         <v>45566.5</v>
       </c>
@@ -8753,7 +8769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251" s="1">
         <v>45566.583333333336</v>
       </c>
@@ -8764,7 +8780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" s="1">
         <v>45566.666666666664</v>
       </c>
@@ -8775,7 +8791,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253" s="1">
         <v>45566.75</v>
       </c>
